--- a/살아보다 22.xlsx
+++ b/살아보다 22.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
   <si>
     <t>4. 아이디 찾기 / 비밀번호 찾기</t>
   </si>
@@ -735,7 +735,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">작성날짜 </t>
+    <t>1. 페이지 요청자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.요청내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 뒤로가기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 페이지 요청자의 아이디 노출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마이페이지 정산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 버튼 클릭시 이동</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>→DB에 저장된 정산 리스트를 보여줌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL :이전 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">E: 클릭시 이전 페이지 이동 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,17 +1482,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,17 +1530,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,9 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1598,6 +1638,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,27 +1696,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15512,15 +15546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15529,8 +15563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809624" y="1000124"/>
-          <a:ext cx="7953375" cy="7019925"/>
+          <a:off x="361950" y="1000124"/>
+          <a:ext cx="7762875" cy="876301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15564,6 +15598,1871 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noRot="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="1038225"/>
+          <a:ext cx="361949" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="90170" tIns="46990" rIns="90170" bIns="46990"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="2190749"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="1114425"/>
+          <a:ext cx="7524750" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2800" baseline="0"/>
+            <a:t> ID: OOO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2800" baseline="0"/>
+            <a:t>님의 정산 내역</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="모서리가 둥근 직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="2697691"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="모서리가 둥근 직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="3204633"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="모서리가 둥근 직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="3711575"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="모서리가 둥근 직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="4218517"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>96309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>201084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="4725459"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="5232401"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>62443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="5739343"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>150285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="모서리가 둥근 직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="6246285"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042988</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="모서리가 둥근 직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="404811" y="6753224"/>
+          <a:ext cx="7629527" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>숙소아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>게스트 아이디</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크인</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: OOO|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>체크아웃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:OOO | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정산금액</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:111111 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1123949</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371474" y="2133600"/>
+          <a:ext cx="7743825" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1085849</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="7286625"/>
+          <a:ext cx="771524" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>뒤로가기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noRot="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="1019175"/>
+          <a:ext cx="314325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="90170" tIns="46990" rIns="90170" bIns="46990"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noRot="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="1800225"/>
+          <a:ext cx="314325" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="90170" tIns="46990" rIns="90170" bIns="46990"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noRot="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="7324725"/>
+          <a:ext cx="314325" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="90170" tIns="46990" rIns="90170" bIns="46990"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="맑은 고딕"/>
+              <a:ea typeface="맑은 고딕"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="맑은 고딕"/>
+            <a:ea typeface="맑은 고딕"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16704,14 +18603,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79">
+      <c r="K1" s="94"/>
+      <c r="L1" s="95">
         <v>43559</v>
       </c>
-      <c r="M1" s="80"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
@@ -16723,12 +18622,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -16740,12 +18639,12 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="80"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -16776,7 +18675,7 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="86"/>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="77" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="75"/>
@@ -16793,7 +18692,7 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="86"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="77" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="75"/>
@@ -16810,7 +18709,7 @@
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="86"/>
-      <c r="J7" s="93"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="75"/>
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
@@ -16825,7 +18724,7 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="86"/>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="77" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="75"/>
@@ -16842,7 +18741,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="86"/>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="77" t="s">
         <v>60</v>
       </c>
       <c r="K9" s="75"/>
@@ -16859,7 +18758,7 @@
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="77" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="75"/>
@@ -16876,7 +18775,7 @@
       <c r="G11" s="85"/>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
-      <c r="J11" s="93"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="75"/>
       <c r="L11" s="75"/>
       <c r="M11" s="76"/>
@@ -16891,7 +18790,7 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="86"/>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="77" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="75"/>
@@ -16908,7 +18807,7 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="77" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="75"/>
@@ -16925,7 +18824,7 @@
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="93" t="s">
+      <c r="J14" s="77" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="75"/>
@@ -16942,7 +18841,7 @@
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="I15" s="86"/>
-      <c r="J15" s="93" t="s">
+      <c r="J15" s="77" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="75"/>
@@ -16959,7 +18858,7 @@
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
       <c r="I16" s="86"/>
-      <c r="J16" s="93"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
@@ -16974,7 +18873,7 @@
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="86"/>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="77" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="75"/>
@@ -16991,7 +18890,7 @@
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
       <c r="I18" s="86"/>
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="77" t="s">
         <v>57</v>
       </c>
       <c r="K18" s="75"/>
@@ -17059,7 +18958,7 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
       <c r="I22" s="86"/>
-      <c r="J22" s="93"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
       <c r="M22" s="76"/>
@@ -17074,7 +18973,7 @@
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
       <c r="I23" s="86"/>
-      <c r="J23" s="93" t="s">
+      <c r="J23" s="77" t="s">
         <v>52</v>
       </c>
       <c r="K23" s="75"/>
@@ -17091,7 +18990,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="77" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="75"/>
@@ -17108,7 +19007,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="93" t="s">
+      <c r="J25" s="77" t="s">
         <v>31</v>
       </c>
       <c r="K25" s="75"/>
@@ -17125,7 +19024,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="86"/>
-      <c r="J26" s="93" t="s">
+      <c r="J26" s="77" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="75"/>
@@ -17142,7 +19041,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="86"/>
-      <c r="J27" s="93"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="76"/>
@@ -17157,7 +19056,7 @@
       <c r="G28" s="85"/>
       <c r="H28" s="85"/>
       <c r="I28" s="86"/>
-      <c r="J28" s="93"/>
+      <c r="J28" s="77"/>
       <c r="K28" s="75"/>
       <c r="L28" s="75"/>
       <c r="M28" s="76"/>
@@ -17172,24 +19071,21 @@
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
       <c r="I29" s="89"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A4:I29"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -17206,14 +19102,17 @@
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -17245,14 +19144,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79">
+      <c r="K1" s="94"/>
+      <c r="L1" s="95">
         <v>43559</v>
       </c>
-      <c r="M1" s="80"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
@@ -17264,12 +19163,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -17281,12 +19180,12 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="80"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -17317,7 +19216,7 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="86"/>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="77" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="75"/>
@@ -17334,7 +19233,7 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="86"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="77" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="75"/>
@@ -17351,7 +19250,7 @@
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="86"/>
-      <c r="J7" s="93"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="75"/>
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
@@ -17366,7 +19265,7 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="86"/>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="77" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="75"/>
@@ -17383,7 +19282,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="86"/>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="77" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="75"/>
@@ -17400,7 +19299,7 @@
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="93"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
       <c r="M10" s="76"/>
@@ -17415,7 +19314,7 @@
       <c r="G11" s="85"/>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="77" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="75"/>
@@ -17432,7 +19331,7 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="86"/>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="77" t="s">
         <v>56</v>
       </c>
       <c r="K12" s="75"/>
@@ -17449,7 +19348,7 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="77" t="s">
         <v>66</v>
       </c>
       <c r="K13" s="75"/>
@@ -17466,7 +19365,7 @@
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="93" t="s">
+      <c r="J14" s="77" t="s">
         <v>53</v>
       </c>
       <c r="K14" s="75"/>
@@ -17483,7 +19382,7 @@
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="I15" s="86"/>
-      <c r="J15" s="93"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
@@ -17498,7 +19397,7 @@
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
       <c r="I16" s="86"/>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="77" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="75"/>
@@ -17515,7 +19414,7 @@
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="86"/>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="77" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="75"/>
@@ -17532,7 +19431,7 @@
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
       <c r="I18" s="86"/>
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="77" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="75"/>
@@ -17549,7 +19448,7 @@
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
       <c r="I19" s="86"/>
-      <c r="J19" s="93" t="s">
+      <c r="J19" s="77" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="75"/>
@@ -17583,7 +19482,7 @@
       <c r="G21" s="85"/>
       <c r="H21" s="85"/>
       <c r="I21" s="86"/>
-      <c r="J21" s="93"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
       <c r="M21" s="76"/>
@@ -17598,7 +19497,7 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
       <c r="I22" s="86"/>
-      <c r="J22" s="93"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
       <c r="M22" s="76"/>
@@ -17613,7 +19512,7 @@
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
       <c r="I23" s="86"/>
-      <c r="J23" s="93"/>
+      <c r="J23" s="77"/>
       <c r="K23" s="75"/>
       <c r="L23" s="75"/>
       <c r="M23" s="76"/>
@@ -17628,7 +19527,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="93"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
       <c r="M24" s="76"/>
@@ -17643,7 +19542,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="93"/>
+      <c r="J25" s="77"/>
       <c r="K25" s="75"/>
       <c r="L25" s="75"/>
       <c r="M25" s="76"/>
@@ -17658,7 +19557,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="86"/>
-      <c r="J26" s="93"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="75"/>
       <c r="L26" s="75"/>
       <c r="M26" s="76"/>
@@ -17673,7 +19572,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="86"/>
-      <c r="J27" s="93"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="76"/>
@@ -17688,21 +19587,22 @@
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="89"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="A4:I28"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -17719,15 +19619,14 @@
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -17759,14 +19658,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79">
+      <c r="K1" s="94"/>
+      <c r="L1" s="95">
         <v>43833</v>
       </c>
-      <c r="M1" s="80"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
@@ -17778,12 +19677,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -17795,17 +19694,17 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="103" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -17822,7 +19721,7 @@
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -17831,7 +19730,7 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="77" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="75"/>
@@ -17839,7 +19738,7 @@
       <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -17848,7 +19747,7 @@
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="69"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="77" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="75"/>
@@ -17856,7 +19755,7 @@
       <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -17865,7 +19764,7 @@
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="69"/>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="77" t="s">
         <v>70</v>
       </c>
       <c r="K7" s="75"/>
@@ -17873,7 +19772,7 @@
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -17882,13 +19781,13 @@
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69"/>
-      <c r="J8" s="93"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -17897,7 +19796,7 @@
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="77" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="75"/>
@@ -17905,7 +19804,7 @@
       <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -17914,7 +19813,7 @@
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
       <c r="I10" s="69"/>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="77" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="75"/>
@@ -17922,7 +19821,7 @@
       <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -17931,15 +19830,15 @@
       <c r="G11" s="68"/>
       <c r="H11" s="68"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -17948,13 +19847,13 @@
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="93"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="75"/>
       <c r="L12" s="75"/>
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -17971,7 +19870,7 @@
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -17988,7 +19887,7 @@
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -17997,13 +19896,13 @@
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
-      <c r="J15" s="93"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -18012,7 +19911,7 @@
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
       <c r="I16" s="69"/>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="77" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="75"/>
@@ -18020,7 +19919,7 @@
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -18029,7 +19928,7 @@
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
       <c r="I17" s="69"/>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="77" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="75"/>
@@ -18037,7 +19936,7 @@
       <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -18046,7 +19945,7 @@
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="69"/>
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="77" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="75"/>
@@ -18054,7 +19953,7 @@
       <c r="M18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -18063,7 +19962,7 @@
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
-      <c r="J19" s="93" t="s">
+      <c r="J19" s="77" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="75"/>
@@ -18071,7 +19970,7 @@
       <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
@@ -18080,7 +19979,7 @@
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="77" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="75"/>
@@ -18088,7 +19987,7 @@
       <c r="M20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -18097,13 +19996,13 @@
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
-      <c r="J21" s="93"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
       <c r="M21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -18112,7 +20011,7 @@
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
       <c r="I22" s="69"/>
-      <c r="J22" s="93" t="s">
+      <c r="J22" s="77" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="75"/>
@@ -18120,7 +20019,7 @@
       <c r="M22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -18129,7 +20028,7 @@
       <c r="G23" s="68"/>
       <c r="H23" s="68"/>
       <c r="I23" s="69"/>
-      <c r="J23" s="93" t="s">
+      <c r="J23" s="77" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="75"/>
@@ -18137,7 +20036,7 @@
       <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -18146,7 +20045,7 @@
       <c r="G24" s="68"/>
       <c r="H24" s="68"/>
       <c r="I24" s="69"/>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="77" t="s">
         <v>67</v>
       </c>
       <c r="K24" s="75"/>
@@ -18154,7 +20053,7 @@
       <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -18163,7 +20062,7 @@
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="69"/>
-      <c r="J25" s="93" t="s">
+      <c r="J25" s="77" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="75"/>
@@ -18171,7 +20070,7 @@
       <c r="M25" s="76"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -18180,13 +20079,13 @@
       <c r="G26" s="68"/>
       <c r="H26" s="68"/>
       <c r="I26" s="69"/>
-      <c r="J26" s="93"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="75"/>
       <c r="L26" s="75"/>
       <c r="M26" s="76"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -18195,13 +20094,13 @@
       <c r="G27" s="68"/>
       <c r="H27" s="68"/>
       <c r="I27" s="69"/>
-      <c r="J27" s="93"/>
+      <c r="J27" s="77"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="76"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -18210,21 +20109,23 @@
       <c r="G28" s="70"/>
       <c r="H28" s="70"/>
       <c r="I28" s="71"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="A4:I28"/>
     <mergeCell ref="J4:M4"/>
@@ -18241,16 +20142,14 @@
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -18286,14 +20185,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79">
+      <c r="K1" s="94"/>
+      <c r="L1" s="95">
         <v>43559</v>
       </c>
-      <c r="M1" s="80"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="59"/>
@@ -18305,12 +20204,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="62"/>
@@ -18322,17 +20221,17 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -18341,13 +20240,13 @@
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="93"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="75"/>
       <c r="L4" s="75"/>
       <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -18356,13 +20255,13 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
-      <c r="J5" s="93"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="75"/>
       <c r="L5" s="75"/>
       <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -18371,13 +20270,13 @@
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="69"/>
-      <c r="J6" s="93"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="75"/>
       <c r="L6" s="75"/>
       <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -18386,13 +20285,13 @@
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="69"/>
-      <c r="J7" s="93"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="75"/>
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -18401,13 +20300,13 @@
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69"/>
-      <c r="J8" s="93"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -18416,13 +20315,13 @@
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="93"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
       <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -18431,13 +20330,13 @@
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
       <c r="I10" s="69"/>
-      <c r="J10" s="93"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
       <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -18446,13 +20345,13 @@
       <c r="G11" s="68"/>
       <c r="H11" s="68"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="93"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="75"/>
       <c r="L11" s="75"/>
       <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -18461,13 +20360,13 @@
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="93"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="75"/>
       <c r="L12" s="75"/>
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -18476,13 +20375,13 @@
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
       <c r="I13" s="69"/>
-      <c r="J13" s="93"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="75"/>
       <c r="L13" s="75"/>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -18497,7 +20396,7 @@
       <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -18506,13 +20405,13 @@
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
-      <c r="J15" s="93"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -18521,13 +20420,13 @@
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
       <c r="I16" s="69"/>
-      <c r="J16" s="93"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -18536,13 +20435,13 @@
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
       <c r="I17" s="69"/>
-      <c r="J17" s="93"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="75"/>
       <c r="L17" s="75"/>
       <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -18557,7 +20456,7 @@
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -18566,13 +20465,13 @@
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
-      <c r="J19" s="93"/>
+      <c r="J19" s="77"/>
       <c r="K19" s="75"/>
       <c r="L19" s="75"/>
       <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
@@ -18581,13 +20480,13 @@
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
-      <c r="J20" s="93"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
       <c r="M20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -18596,13 +20495,13 @@
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
-      <c r="J21" s="93"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
       <c r="M21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -18611,13 +20510,13 @@
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
       <c r="I22" s="69"/>
-      <c r="J22" s="93"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
       <c r="M22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -18626,13 +20525,13 @@
       <c r="G23" s="68"/>
       <c r="H23" s="68"/>
       <c r="I23" s="69"/>
-      <c r="J23" s="93"/>
+      <c r="J23" s="77"/>
       <c r="K23" s="75"/>
       <c r="L23" s="75"/>
       <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -18641,13 +20540,13 @@
       <c r="G24" s="68"/>
       <c r="H24" s="68"/>
       <c r="I24" s="69"/>
-      <c r="J24" s="93"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
       <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -18662,7 +20561,7 @@
       <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -18677,7 +20576,7 @@
       <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -18692,7 +20591,7 @@
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -18707,7 +20606,7 @@
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -18722,7 +20621,7 @@
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
@@ -18737,7 +20636,7 @@
       <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -18752,7 +20651,7 @@
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
@@ -18767,7 +20666,7 @@
       <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -18782,7 +20681,7 @@
       <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -18797,7 +20696,7 @@
       <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
@@ -18812,7 +20711,7 @@
       <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -18821,13 +20720,13 @@
       <c r="G36" s="68"/>
       <c r="H36" s="68"/>
       <c r="I36" s="69"/>
-      <c r="J36" s="93"/>
+      <c r="J36" s="77"/>
       <c r="K36" s="75"/>
       <c r="L36" s="75"/>
       <c r="M36" s="76"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
@@ -18842,7 +20741,7 @@
       <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
@@ -18857,7 +20756,7 @@
       <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
@@ -18866,19 +20765,21 @@
       <c r="G39" s="70"/>
       <c r="H39" s="70"/>
       <c r="I39" s="71"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="96"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A4:I39"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -18895,14 +20796,12 @@
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18916,7 +20815,7 @@
   <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18927,7 +20826,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
@@ -18950,7 +20849,7 @@
       <c r="P2" s="106"/>
     </row>
     <row r="3" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="69"/>
@@ -18969,7 +20868,7 @@
       <c r="P3" s="108"/>
     </row>
     <row r="4" spans="2:16" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="99"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
@@ -19096,7 +20995,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="93"/>
+      <c r="M10" s="77"/>
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
       <c r="P10" s="76"/>
@@ -19189,7 +21088,7 @@
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
       <c r="L15" s="47"/>
-      <c r="M15" s="93"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="75"/>
       <c r="O15" s="75"/>
       <c r="P15" s="76"/>
@@ -19206,7 +21105,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="93"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="75"/>
       <c r="O16" s="75"/>
       <c r="P16" s="76"/>
@@ -19223,7 +21122,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="93"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="75"/>
       <c r="O17" s="75"/>
       <c r="P17" s="76"/>
@@ -19316,7 +21215,7 @@
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="93"/>
+      <c r="M22" s="77"/>
       <c r="N22" s="75"/>
       <c r="O22" s="75"/>
       <c r="P22" s="76"/>
@@ -19333,7 +21232,7 @@
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="93"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="75"/>
       <c r="O23" s="75"/>
       <c r="P23" s="76"/>
@@ -19350,7 +21249,7 @@
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
-      <c r="M24" s="93"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="75"/>
       <c r="O24" s="75"/>
       <c r="P24" s="76"/>
@@ -19367,7 +21266,7 @@
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="93"/>
+      <c r="M25" s="77"/>
       <c r="N25" s="75"/>
       <c r="O25" s="75"/>
       <c r="P25" s="76"/>
@@ -19460,7 +21359,7 @@
       <c r="J30" s="47"/>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
-      <c r="M30" s="93"/>
+      <c r="M30" s="77"/>
       <c r="N30" s="75"/>
       <c r="O30" s="75"/>
       <c r="P30" s="76"/>
@@ -19477,7 +21376,7 @@
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
-      <c r="M31" s="93"/>
+      <c r="M31" s="77"/>
       <c r="N31" s="75"/>
       <c r="O31" s="75"/>
       <c r="P31" s="76"/>
@@ -19494,7 +21393,7 @@
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
-      <c r="M32" s="98"/>
+      <c r="M32" s="99"/>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
       <c r="P32" s="69"/>
@@ -19511,7 +21410,7 @@
       <c r="J33" s="47"/>
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
-      <c r="M33" s="98"/>
+      <c r="M33" s="99"/>
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
       <c r="P33" s="69"/>
@@ -19528,7 +21427,7 @@
       <c r="J34" s="47"/>
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
-      <c r="M34" s="98"/>
+      <c r="M34" s="99"/>
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
       <c r="P34" s="69"/>
@@ -19545,7 +21444,7 @@
       <c r="J35" s="47"/>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
-      <c r="M35" s="98"/>
+      <c r="M35" s="99"/>
       <c r="N35" s="68"/>
       <c r="O35" s="68"/>
       <c r="P35" s="69"/>
@@ -19562,7 +21461,7 @@
       <c r="J36" s="47"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
-      <c r="M36" s="98"/>
+      <c r="M36" s="99"/>
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
       <c r="P36" s="69"/>
@@ -19586,16 +21485,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="C6:K7"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M7:P7"/>
@@ -19609,23 +21515,16 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="C6:K7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F2:L4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19639,74 +21538,74 @@
   <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67"/>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="97"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="67"/>
-      <c r="L2" s="138" t="s">
+      <c r="L2" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="139"/>
-      <c r="N2" s="144">
+      <c r="M2" s="144"/>
+      <c r="N2" s="129">
         <v>43836</v>
       </c>
-      <c r="O2" s="145"/>
+      <c r="O2" s="130"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="98"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="69"/>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="141"/>
+      <c r="M3" s="146"/>
       <c r="N3" s="117"/>
-      <c r="O3" s="146"/>
+      <c r="O3" s="131"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="99"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="70"/>
       <c r="D4" s="71"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="99"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="71"/>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="147" t="s">
+      <c r="M4" s="148"/>
+      <c r="N4" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="148"/>
+      <c r="O4" s="133"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -19722,7 +21621,7 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -19740,7 +21639,7 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -19756,7 +21655,7 @@
       <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -19772,7 +21671,7 @@
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -19790,7 +21689,7 @@
       <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -19806,7 +21705,7 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -19824,7 +21723,7 @@
       <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -19840,7 +21739,7 @@
       <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -19856,7 +21755,7 @@
       <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -19872,7 +21771,7 @@
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -19890,7 +21789,7 @@
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -19908,7 +21807,7 @@
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -19925,7 +21824,7 @@
       <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -19941,7 +21840,7 @@
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -19957,7 +21856,7 @@
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -19975,7 +21874,7 @@
       <c r="O20" s="48"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -19991,7 +21890,7 @@
       <c r="O21" s="48"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -20007,7 +21906,7 @@
       <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -20022,7 +21921,7 @@
       <c r="O23" s="48"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -20038,7 +21937,7 @@
       <c r="O24" s="48"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -20054,7 +21953,7 @@
       <c r="O25" s="48"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -20072,7 +21971,7 @@
       <c r="O26" s="48"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -20087,7 +21986,7 @@
       <c r="O27" s="48"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -20103,7 +22002,7 @@
       <c r="O28" s="48"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -20121,7 +22020,7 @@
       <c r="O29" s="48"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -20137,7 +22036,7 @@
       <c r="O30" s="48"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -20153,7 +22052,7 @@
       <c r="O31" s="48"/>
     </row>
     <row r="32" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -20168,7 +22067,7 @@
       <c r="O32" s="48"/>
     </row>
     <row r="33" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -20184,7 +22083,7 @@
       <c r="O33" s="48"/>
     </row>
     <row r="34" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -20199,7 +22098,7 @@
       <c r="O34" s="48"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="98"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -20217,7 +22116,7 @@
       <c r="O35" s="48"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -20233,7 +22132,7 @@
       <c r="O36" s="48"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
@@ -20248,7 +22147,7 @@
       <c r="O37" s="48"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
@@ -20266,7 +22165,7 @@
       <c r="O38" s="48"/>
     </row>
     <row r="39" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="68"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
@@ -20282,7 +22181,7 @@
       <c r="O39" s="48"/>
     </row>
     <row r="40" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
@@ -20298,7 +22197,7 @@
       <c r="O40" s="48"/>
     </row>
     <row r="41" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="98"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="68"/>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
@@ -20313,7 +22212,7 @@
       <c r="O41" s="48"/>
     </row>
     <row r="42" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="98"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="68"/>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
@@ -20329,7 +22228,7 @@
       <c r="O42" s="48"/>
     </row>
     <row r="43" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="99"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="70"/>
       <c r="D43" s="70"/>
       <c r="E43" s="70"/>
@@ -20348,16 +22247,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:K43"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="J2:K4"/>
     <mergeCell ref="E2:I4"/>
-    <mergeCell ref="B5:K43"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20380,67 +22279,67 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67"/>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="97"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="67"/>
-      <c r="L2" s="138" t="s">
+      <c r="L2" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="139"/>
-      <c r="N2" s="144">
+      <c r="M2" s="144"/>
+      <c r="N2" s="129">
         <v>43836</v>
       </c>
-      <c r="O2" s="145"/>
+      <c r="O2" s="130"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="98"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="69"/>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="141"/>
+      <c r="M3" s="146"/>
       <c r="N3" s="117"/>
-      <c r="O3" s="146"/>
+      <c r="O3" s="131"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="99"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="70"/>
       <c r="D4" s="71"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="99"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="71"/>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="143"/>
-      <c r="N4" s="147" t="s">
+      <c r="M4" s="148"/>
+      <c r="N4" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="148"/>
+      <c r="O4" s="133"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -20456,7 +22355,7 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -20474,7 +22373,7 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -20490,7 +22389,7 @@
       <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -20506,7 +22405,7 @@
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -20522,7 +22421,7 @@
       <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -20540,7 +22439,7 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -20556,7 +22455,7 @@
       <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -20572,7 +22471,7 @@
       <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -20588,7 +22487,7 @@
       <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -20604,7 +22503,7 @@
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -20622,7 +22521,7 @@
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -20638,7 +22537,7 @@
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -20654,7 +22553,7 @@
       <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -20670,7 +22569,7 @@
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -20686,7 +22585,7 @@
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -20702,7 +22601,7 @@
       <c r="O20" s="48"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -20718,7 +22617,7 @@
       <c r="O21" s="48"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -20734,7 +22633,7 @@
       <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -20752,7 +22651,7 @@
       <c r="O23" s="48"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -20768,7 +22667,7 @@
       <c r="O24" s="48"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -20786,7 +22685,7 @@
       <c r="O25" s="48"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -20802,7 +22701,7 @@
       <c r="O26" s="48"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -20818,7 +22717,7 @@
       <c r="O27" s="48"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -20834,7 +22733,7 @@
       <c r="O28" s="48"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -20850,7 +22749,7 @@
       <c r="O29" s="48"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -20866,7 +22765,7 @@
       <c r="O30" s="48"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -20882,7 +22781,7 @@
       <c r="O31" s="48"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -20898,7 +22797,7 @@
       <c r="O32" s="48"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -20914,7 +22813,7 @@
       <c r="O33" s="48"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="98"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -20930,7 +22829,7 @@
       <c r="O34" s="48"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="98"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -20948,7 +22847,7 @@
       <c r="O35" s="48"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -20966,7 +22865,7 @@
       <c r="O36" s="48"/>
     </row>
     <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="99"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -20983,16 +22882,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:K37"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:I4"/>
+    <mergeCell ref="J2:K4"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:K37"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:I4"/>
-    <mergeCell ref="J2:K4"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21002,76 +22901,88 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q39"/>
+  <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="4" customWidth="1"/>
+    <col min="2" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="20.875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="98"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="114" t="s">
-        <v>130</v>
+      <c r="F2" s="120" t="s">
+        <v>106</v>
       </c>
-      <c r="O2" s="149"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="115"/>
+      <c r="O2" s="105">
+        <v>43836</v>
+      </c>
+      <c r="P2" s="106"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="99"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="69"/>
-    </row>
-    <row r="4" spans="2:17" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="99"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="117"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+    </row>
+    <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="100"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="119"/>
+      <c r="O4" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="110"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="98"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -21081,15 +22992,14 @@
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="46"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="47"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="99"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -21099,15 +23009,16 @@
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="113"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="99"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -21117,15 +23028,13 @@
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="99"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -21135,15 +23044,16 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="74"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="99"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -21153,15 +23063,16 @@
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="99"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -21171,15 +23082,14 @@
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="99"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -21189,15 +23099,16 @@
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="99"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -21207,15 +23118,14 @@
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="99"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -21225,15 +23135,16 @@
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="99"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -21243,15 +23154,16 @@
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="99"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -21261,15 +23173,14 @@
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="99"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -21279,15 +23190,14 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="99"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -21297,15 +23207,14 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="99"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -21315,15 +23224,16 @@
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="99"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -21333,15 +23243,16 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="99"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -21351,15 +23262,16 @@
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="99"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -21369,15 +23281,14 @@
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="99"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -21387,15 +23298,14 @@
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="48"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="99"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -21405,15 +23315,14 @@
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="48"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="99"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -21423,15 +23332,14 @@
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
       <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="98"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="99"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -21441,15 +23349,14 @@
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="99"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -21459,15 +23366,14 @@
       <c r="I26" s="68"/>
       <c r="J26" s="68"/>
       <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="48"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="99"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -21477,15 +23383,14 @@
       <c r="I27" s="68"/>
       <c r="J27" s="68"/>
       <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="48"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="98"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="99"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -21495,15 +23400,14 @@
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
       <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="48"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="98"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="99"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -21513,15 +23417,14 @@
       <c r="I29" s="68"/>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="99"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -21531,15 +23434,14 @@
       <c r="I30" s="68"/>
       <c r="J30" s="68"/>
       <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="48"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="99"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -21549,15 +23451,14 @@
       <c r="I31" s="68"/>
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="48"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="99"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -21567,15 +23468,14 @@
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="69"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="99"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -21585,15 +23485,14 @@
       <c r="I33" s="68"/>
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="48"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="98"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="69"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="99"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -21603,15 +23502,14 @@
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="48"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="98"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="69"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="99"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -21621,15 +23519,14 @@
       <c r="I35" s="68"/>
       <c r="J35" s="68"/>
       <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="48"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="69"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="99"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -21639,78 +23536,70 @@
       <c r="I36" s="68"/>
       <c r="J36" s="68"/>
       <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="48"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="48"/>
-    </row>
-    <row r="39" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="99"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="51"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="69"/>
+    </row>
+    <row r="37" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="100"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B5:M39"/>
+  <mergeCells count="39">
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B5:L37"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="B2:E4"/>
-    <mergeCell ref="F2:M4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/살아보다 22.xlsx
+++ b/살아보다 22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6735" tabRatio="887" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6735" tabRatio="987" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="메인 페이지 전체" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>4.예약자 리스트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>5.숙소 업로드 리스트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -776,6 +772,10 @@
   </si>
   <si>
     <t xml:space="preserve">E: 클릭시 이전 페이지 이동 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.예약자 리스트 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1482,17 +1482,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1530,20 +1530,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,6 +1559,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1638,6 +1638,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,23 +1698,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18603,14 +18606,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95">
+      <c r="K1" s="78"/>
+      <c r="L1" s="79">
         <v>43559</v>
       </c>
-      <c r="M1" s="96"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
@@ -18622,12 +18625,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -18639,12 +18642,12 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="96"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -18675,7 +18678,7 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="86"/>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="93" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="75"/>
@@ -18692,7 +18695,7 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="86"/>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="93" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="75"/>
@@ -18709,7 +18712,7 @@
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="86"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="75"/>
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
@@ -18724,7 +18727,7 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="86"/>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="93" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="75"/>
@@ -18741,7 +18744,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="86"/>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="93" t="s">
         <v>60</v>
       </c>
       <c r="K9" s="75"/>
@@ -18758,7 +18761,7 @@
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="93" t="s">
         <v>64</v>
       </c>
       <c r="K10" s="75"/>
@@ -18775,7 +18778,7 @@
       <c r="G11" s="85"/>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
-      <c r="J11" s="77"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="75"/>
       <c r="L11" s="75"/>
       <c r="M11" s="76"/>
@@ -18790,7 +18793,7 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="86"/>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="93" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="75"/>
@@ -18807,7 +18810,7 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="93" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="75"/>
@@ -18824,7 +18827,7 @@
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="93" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="75"/>
@@ -18841,7 +18844,7 @@
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="I15" s="86"/>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="93" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="75"/>
@@ -18858,7 +18861,7 @@
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
       <c r="I16" s="86"/>
-      <c r="J16" s="77"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
@@ -18873,7 +18876,7 @@
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="86"/>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="93" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="75"/>
@@ -18890,7 +18893,7 @@
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
       <c r="I18" s="86"/>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="93" t="s">
         <v>57</v>
       </c>
       <c r="K18" s="75"/>
@@ -18958,7 +18961,7 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
       <c r="I22" s="86"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
       <c r="M22" s="76"/>
@@ -18973,7 +18976,7 @@
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
       <c r="I23" s="86"/>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="93" t="s">
         <v>52</v>
       </c>
       <c r="K23" s="75"/>
@@ -18990,7 +18993,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="77" t="s">
+      <c r="J24" s="93" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="75"/>
@@ -19007,7 +19010,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="77" t="s">
+      <c r="J25" s="93" t="s">
         <v>31</v>
       </c>
       <c r="K25" s="75"/>
@@ -19024,7 +19027,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="86"/>
-      <c r="J26" s="77" t="s">
+      <c r="J26" s="93" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="75"/>
@@ -19041,7 +19044,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="86"/>
-      <c r="J27" s="77"/>
+      <c r="J27" s="93"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="76"/>
@@ -19056,7 +19059,7 @@
       <c r="G28" s="85"/>
       <c r="H28" s="85"/>
       <c r="I28" s="86"/>
-      <c r="J28" s="77"/>
+      <c r="J28" s="93"/>
       <c r="K28" s="75"/>
       <c r="L28" s="75"/>
       <c r="M28" s="76"/>
@@ -19071,21 +19074,24 @@
       <c r="G29" s="88"/>
       <c r="H29" s="88"/>
       <c r="I29" s="89"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="80"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="A4:I29"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -19102,17 +19108,14 @@
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -19144,14 +19147,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95">
+      <c r="K1" s="78"/>
+      <c r="L1" s="79">
         <v>43559</v>
       </c>
-      <c r="M1" s="96"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
@@ -19163,12 +19166,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -19180,12 +19183,12 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="96"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
@@ -19216,7 +19219,7 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="86"/>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="93" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="75"/>
@@ -19233,7 +19236,7 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="86"/>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="93" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="75"/>
@@ -19250,7 +19253,7 @@
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="86"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="75"/>
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
@@ -19265,7 +19268,7 @@
       <c r="G8" s="85"/>
       <c r="H8" s="85"/>
       <c r="I8" s="86"/>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="93" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="75"/>
@@ -19282,7 +19285,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="86"/>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="93" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="75"/>
@@ -19299,7 +19302,7 @@
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
       <c r="M10" s="76"/>
@@ -19314,7 +19317,7 @@
       <c r="G11" s="85"/>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="93" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="75"/>
@@ -19331,7 +19334,7 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="86"/>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="93" t="s">
         <v>56</v>
       </c>
       <c r="K12" s="75"/>
@@ -19348,7 +19351,7 @@
       <c r="G13" s="85"/>
       <c r="H13" s="85"/>
       <c r="I13" s="86"/>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="93" t="s">
         <v>66</v>
       </c>
       <c r="K13" s="75"/>
@@ -19365,7 +19368,7 @@
       <c r="G14" s="85"/>
       <c r="H14" s="85"/>
       <c r="I14" s="86"/>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="93" t="s">
         <v>53</v>
       </c>
       <c r="K14" s="75"/>
@@ -19382,7 +19385,7 @@
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="I15" s="86"/>
-      <c r="J15" s="77"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
@@ -19397,7 +19400,7 @@
       <c r="G16" s="85"/>
       <c r="H16" s="85"/>
       <c r="I16" s="86"/>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="93" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="75"/>
@@ -19414,7 +19417,7 @@
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="86"/>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="93" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="75"/>
@@ -19431,7 +19434,7 @@
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
       <c r="I18" s="86"/>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="93" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="75"/>
@@ -19448,7 +19451,7 @@
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
       <c r="I19" s="86"/>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="93" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="75"/>
@@ -19482,7 +19485,7 @@
       <c r="G21" s="85"/>
       <c r="H21" s="85"/>
       <c r="I21" s="86"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
       <c r="M21" s="76"/>
@@ -19497,7 +19500,7 @@
       <c r="G22" s="85"/>
       <c r="H22" s="85"/>
       <c r="I22" s="86"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
       <c r="M22" s="76"/>
@@ -19512,7 +19515,7 @@
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
       <c r="I23" s="86"/>
-      <c r="J23" s="77"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="75"/>
       <c r="L23" s="75"/>
       <c r="M23" s="76"/>
@@ -19527,7 +19530,7 @@
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
-      <c r="J24" s="77"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
       <c r="M24" s="76"/>
@@ -19542,7 +19545,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
-      <c r="J25" s="77"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="75"/>
       <c r="L25" s="75"/>
       <c r="M25" s="76"/>
@@ -19557,7 +19560,7 @@
       <c r="G26" s="85"/>
       <c r="H26" s="85"/>
       <c r="I26" s="86"/>
-      <c r="J26" s="77"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="75"/>
       <c r="L26" s="75"/>
       <c r="M26" s="76"/>
@@ -19572,7 +19575,7 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="86"/>
-      <c r="J27" s="77"/>
+      <c r="J27" s="93"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="76"/>
@@ -19587,22 +19590,21 @@
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="89"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A4:I28"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -19619,14 +19621,15 @@
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J19:M19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -19658,14 +19661,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95">
+      <c r="K1" s="78"/>
+      <c r="L1" s="79">
         <v>43833</v>
       </c>
-      <c r="M1" s="96"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
@@ -19677,12 +19680,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
@@ -19694,17 +19697,17 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="97" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="96"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -19721,7 +19724,7 @@
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -19730,7 +19733,7 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="93" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="75"/>
@@ -19738,7 +19741,7 @@
       <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -19747,7 +19750,7 @@
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="69"/>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="93" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="75"/>
@@ -19755,7 +19758,7 @@
       <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -19764,7 +19767,7 @@
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="69"/>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="93" t="s">
         <v>70</v>
       </c>
       <c r="K7" s="75"/>
@@ -19772,7 +19775,7 @@
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -19781,13 +19784,13 @@
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69"/>
-      <c r="J8" s="77"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -19796,7 +19799,7 @@
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="93" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="75"/>
@@ -19804,7 +19807,7 @@
       <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -19813,7 +19816,7 @@
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
       <c r="I10" s="69"/>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="93" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="75"/>
@@ -19821,7 +19824,7 @@
       <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -19830,15 +19833,15 @@
       <c r="G11" s="68"/>
       <c r="H11" s="68"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="103"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -19847,13 +19850,13 @@
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="77"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="75"/>
       <c r="L12" s="75"/>
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -19870,7 +19873,7 @@
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -19887,7 +19890,7 @@
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -19896,13 +19899,13 @@
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
-      <c r="J15" s="77"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -19911,7 +19914,7 @@
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
       <c r="I16" s="69"/>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="93" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="75"/>
@@ -19919,7 +19922,7 @@
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -19928,7 +19931,7 @@
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
       <c r="I17" s="69"/>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="93" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="75"/>
@@ -19936,7 +19939,7 @@
       <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -19945,7 +19948,7 @@
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="69"/>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="93" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="75"/>
@@ -19953,7 +19956,7 @@
       <c r="M18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -19962,7 +19965,7 @@
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="93" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="75"/>
@@ -19970,7 +19973,7 @@
       <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
@@ -19979,7 +19982,7 @@
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="93" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="75"/>
@@ -19987,7 +19990,7 @@
       <c r="M20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -19996,13 +19999,13 @@
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
       <c r="M21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -20011,7 +20014,7 @@
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
       <c r="I22" s="69"/>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="93" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="75"/>
@@ -20019,7 +20022,7 @@
       <c r="M22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -20028,7 +20031,7 @@
       <c r="G23" s="68"/>
       <c r="H23" s="68"/>
       <c r="I23" s="69"/>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="75"/>
@@ -20036,7 +20039,7 @@
       <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -20045,7 +20048,7 @@
       <c r="G24" s="68"/>
       <c r="H24" s="68"/>
       <c r="I24" s="69"/>
-      <c r="J24" s="77" t="s">
+      <c r="J24" s="93" t="s">
         <v>67</v>
       </c>
       <c r="K24" s="75"/>
@@ -20053,7 +20056,7 @@
       <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -20062,7 +20065,7 @@
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="69"/>
-      <c r="J25" s="77" t="s">
+      <c r="J25" s="93" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="75"/>
@@ -20070,7 +20073,7 @@
       <c r="M25" s="76"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -20079,13 +20082,13 @@
       <c r="G26" s="68"/>
       <c r="H26" s="68"/>
       <c r="I26" s="69"/>
-      <c r="J26" s="77"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="75"/>
       <c r="L26" s="75"/>
       <c r="M26" s="76"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -20094,13 +20097,13 @@
       <c r="G27" s="68"/>
       <c r="H27" s="68"/>
       <c r="I27" s="69"/>
-      <c r="J27" s="77"/>
+      <c r="J27" s="93"/>
       <c r="K27" s="75"/>
       <c r="L27" s="75"/>
       <c r="M27" s="76"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -20109,23 +20112,21 @@
       <c r="G28" s="70"/>
       <c r="H28" s="70"/>
       <c r="I28" s="71"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="A4:I28"/>
     <mergeCell ref="J4:M4"/>
@@ -20142,14 +20143,16 @@
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -20185,14 +20188,14 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95">
+      <c r="K1" s="78"/>
+      <c r="L1" s="79">
         <v>43559</v>
       </c>
-      <c r="M1" s="96"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="59"/>
@@ -20204,12 +20207,12 @@
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="61"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="62"/>
@@ -20221,17 +20224,17 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="96"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -20240,13 +20243,13 @@
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="77"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="75"/>
       <c r="L4" s="75"/>
       <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -20255,13 +20258,13 @@
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
-      <c r="J5" s="77"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="75"/>
       <c r="L5" s="75"/>
       <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -20270,13 +20273,13 @@
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
       <c r="I6" s="69"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="93"/>
       <c r="K6" s="75"/>
       <c r="L6" s="75"/>
       <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -20285,13 +20288,13 @@
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="69"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="75"/>
       <c r="L7" s="75"/>
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -20300,13 +20303,13 @@
       <c r="G8" s="68"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69"/>
-      <c r="J8" s="77"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -20315,13 +20318,13 @@
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="77"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
       <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -20330,13 +20333,13 @@
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
       <c r="I10" s="69"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
       <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -20345,13 +20348,13 @@
       <c r="G11" s="68"/>
       <c r="H11" s="68"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="77"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="75"/>
       <c r="L11" s="75"/>
       <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -20360,13 +20363,13 @@
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="77"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="75"/>
       <c r="L12" s="75"/>
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -20375,13 +20378,13 @@
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
       <c r="I13" s="69"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="75"/>
       <c r="L13" s="75"/>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -20396,7 +20399,7 @@
       <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -20405,13 +20408,13 @@
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
-      <c r="J15" s="77"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -20420,13 +20423,13 @@
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
       <c r="I16" s="69"/>
-      <c r="J16" s="77"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -20435,13 +20438,13 @@
       <c r="G17" s="68"/>
       <c r="H17" s="68"/>
       <c r="I17" s="69"/>
-      <c r="J17" s="77"/>
+      <c r="J17" s="93"/>
       <c r="K17" s="75"/>
       <c r="L17" s="75"/>
       <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -20456,7 +20459,7 @@
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -20465,13 +20468,13 @@
       <c r="G19" s="68"/>
       <c r="H19" s="68"/>
       <c r="I19" s="69"/>
-      <c r="J19" s="77"/>
+      <c r="J19" s="93"/>
       <c r="K19" s="75"/>
       <c r="L19" s="75"/>
       <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
@@ -20480,13 +20483,13 @@
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
-      <c r="J20" s="77"/>
+      <c r="J20" s="93"/>
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
       <c r="M20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -20495,13 +20498,13 @@
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
-      <c r="J21" s="77"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
       <c r="M21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -20510,13 +20513,13 @@
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
       <c r="I22" s="69"/>
-      <c r="J22" s="77"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
       <c r="M22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -20525,13 +20528,13 @@
       <c r="G23" s="68"/>
       <c r="H23" s="68"/>
       <c r="I23" s="69"/>
-      <c r="J23" s="77"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="75"/>
       <c r="L23" s="75"/>
       <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -20540,13 +20543,13 @@
       <c r="G24" s="68"/>
       <c r="H24" s="68"/>
       <c r="I24" s="69"/>
-      <c r="J24" s="77"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
       <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -20561,7 +20564,7 @@
       <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -20576,7 +20579,7 @@
       <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -20591,7 +20594,7 @@
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -20606,7 +20609,7 @@
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -20621,7 +20624,7 @@
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
@@ -20636,7 +20639,7 @@
       <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -20651,7 +20654,7 @@
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
@@ -20666,7 +20669,7 @@
       <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="68"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -20681,7 +20684,7 @@
       <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="68"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -20696,7 +20699,7 @@
       <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="99"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
@@ -20711,7 +20714,7 @@
       <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -20720,13 +20723,13 @@
       <c r="G36" s="68"/>
       <c r="H36" s="68"/>
       <c r="I36" s="69"/>
-      <c r="J36" s="77"/>
+      <c r="J36" s="93"/>
       <c r="K36" s="75"/>
       <c r="L36" s="75"/>
       <c r="M36" s="76"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
@@ -20741,7 +20744,7 @@
       <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
@@ -20756,7 +20759,7 @@
       <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="100"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
@@ -20765,21 +20768,19 @@
       <c r="G39" s="70"/>
       <c r="H39" s="70"/>
       <c r="I39" s="71"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="80"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:I3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
     <mergeCell ref="A4:I39"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
@@ -20796,12 +20797,14 @@
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:I3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20814,8 +20817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20826,7 +20829,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="98"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
@@ -20849,7 +20852,7 @@
       <c r="P2" s="106"/>
     </row>
     <row r="3" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="69"/>
@@ -20868,7 +20871,7 @@
       <c r="P3" s="108"/>
     </row>
     <row r="4" spans="2:16" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="100"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
@@ -20995,7 +20998,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="77"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
       <c r="P10" s="76"/>
@@ -21088,7 +21091,7 @@
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
       <c r="L15" s="47"/>
-      <c r="M15" s="77"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="75"/>
       <c r="O15" s="75"/>
       <c r="P15" s="76"/>
@@ -21105,7 +21108,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47"/>
-      <c r="M16" s="77"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="75"/>
       <c r="O16" s="75"/>
       <c r="P16" s="76"/>
@@ -21122,7 +21125,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
       <c r="L17" s="47"/>
-      <c r="M17" s="77"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="75"/>
       <c r="O17" s="75"/>
       <c r="P17" s="76"/>
@@ -21215,7 +21218,7 @@
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="77"/>
+      <c r="M22" s="93"/>
       <c r="N22" s="75"/>
       <c r="O22" s="75"/>
       <c r="P22" s="76"/>
@@ -21232,7 +21235,7 @@
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="77"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="75"/>
       <c r="O23" s="75"/>
       <c r="P23" s="76"/>
@@ -21249,7 +21252,7 @@
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
-      <c r="M24" s="77"/>
+      <c r="M24" s="93"/>
       <c r="N24" s="75"/>
       <c r="O24" s="75"/>
       <c r="P24" s="76"/>
@@ -21266,7 +21269,7 @@
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="77"/>
+      <c r="M25" s="93"/>
       <c r="N25" s="75"/>
       <c r="O25" s="75"/>
       <c r="P25" s="76"/>
@@ -21359,7 +21362,7 @@
       <c r="J30" s="47"/>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
-      <c r="M30" s="77"/>
+      <c r="M30" s="93"/>
       <c r="N30" s="75"/>
       <c r="O30" s="75"/>
       <c r="P30" s="76"/>
@@ -21376,7 +21379,7 @@
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
-      <c r="M31" s="77"/>
+      <c r="M31" s="93"/>
       <c r="N31" s="75"/>
       <c r="O31" s="75"/>
       <c r="P31" s="76"/>
@@ -21393,7 +21396,7 @@
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
-      <c r="M32" s="99"/>
+      <c r="M32" s="98"/>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
       <c r="P32" s="69"/>
@@ -21410,7 +21413,7 @@
       <c r="J33" s="47"/>
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
-      <c r="M33" s="99"/>
+      <c r="M33" s="98"/>
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
       <c r="P33" s="69"/>
@@ -21427,7 +21430,7 @@
       <c r="J34" s="47"/>
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
-      <c r="M34" s="99"/>
+      <c r="M34" s="98"/>
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
       <c r="P34" s="69"/>
@@ -21444,7 +21447,7 @@
       <c r="J35" s="47"/>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
-      <c r="M35" s="99"/>
+      <c r="M35" s="98"/>
       <c r="N35" s="68"/>
       <c r="O35" s="68"/>
       <c r="P35" s="69"/>
@@ -21461,7 +21464,7 @@
       <c r="J36" s="47"/>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
-      <c r="M36" s="99"/>
+      <c r="M36" s="98"/>
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
       <c r="P36" s="69"/>
@@ -21485,23 +21488,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="C6:K7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F2:L4"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M7:P7"/>
@@ -21515,16 +21511,23 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="C6:K7"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21537,75 +21540,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="98"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67"/>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="98"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="67"/>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="129">
+      <c r="M2" s="130"/>
+      <c r="N2" s="135">
         <v>43836</v>
       </c>
-      <c r="O2" s="130"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="99"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="69"/>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="146"/>
+      <c r="M3" s="132"/>
       <c r="N3" s="117"/>
-      <c r="O3" s="131"/>
+      <c r="O3" s="137"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="100"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="70"/>
       <c r="D4" s="71"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="100"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="99"/>
       <c r="K4" s="71"/>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="148"/>
-      <c r="N4" s="132" t="s">
+      <c r="M4" s="134"/>
+      <c r="N4" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="133"/>
+      <c r="O4" s="139"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -21621,7 +21624,7 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -21639,7 +21642,7 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -21655,7 +21658,7 @@
       <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -21671,7 +21674,7 @@
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -21689,7 +21692,7 @@
       <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -21705,7 +21708,7 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -21723,7 +21726,7 @@
       <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -21739,7 +21742,7 @@
       <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -21755,7 +21758,7 @@
       <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -21771,7 +21774,7 @@
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -21789,7 +21792,7 @@
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -21800,14 +21803,14 @@
       <c r="J16" s="68"/>
       <c r="K16" s="69"/>
       <c r="L16" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -21818,13 +21821,13 @@
       <c r="J17" s="68"/>
       <c r="K17" s="69"/>
       <c r="L17" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17" s="47"/>
       <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -21840,7 +21843,7 @@
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -21856,7 +21859,7 @@
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -21867,14 +21870,14 @@
       <c r="J20" s="68"/>
       <c r="K20" s="69"/>
       <c r="L20" s="55" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
       <c r="O20" s="48"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -21890,7 +21893,7 @@
       <c r="O21" s="48"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -21906,7 +21909,7 @@
       <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -21921,7 +21924,7 @@
       <c r="O23" s="48"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -21937,7 +21940,7 @@
       <c r="O24" s="48"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -21953,7 +21956,7 @@
       <c r="O25" s="48"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -21971,7 +21974,7 @@
       <c r="O26" s="48"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -21986,7 +21989,7 @@
       <c r="O27" s="48"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -22002,7 +22005,7 @@
       <c r="O28" s="48"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -22013,14 +22016,14 @@
       <c r="J29" s="68"/>
       <c r="K29" s="69"/>
       <c r="L29" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
       <c r="O29" s="48"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -22036,7 +22039,7 @@
       <c r="O30" s="48"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -22052,7 +22055,7 @@
       <c r="O31" s="48"/>
     </row>
     <row r="32" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -22067,7 +22070,7 @@
       <c r="O32" s="48"/>
     </row>
     <row r="33" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -22083,7 +22086,7 @@
       <c r="O33" s="48"/>
     </row>
     <row r="34" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -22098,7 +22101,7 @@
       <c r="O34" s="48"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -22116,7 +22119,7 @@
       <c r="O35" s="48"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -22132,7 +22135,7 @@
       <c r="O36" s="48"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
@@ -22147,7 +22150,7 @@
       <c r="O37" s="48"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
@@ -22158,14 +22161,14 @@
       <c r="J38" s="68"/>
       <c r="K38" s="69"/>
       <c r="L38" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M38" s="47"/>
       <c r="N38" s="47"/>
       <c r="O38" s="48"/>
     </row>
     <row r="39" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="68"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
@@ -22181,7 +22184,7 @@
       <c r="O39" s="48"/>
     </row>
     <row r="40" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
@@ -22197,7 +22200,7 @@
       <c r="O40" s="48"/>
     </row>
     <row r="41" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="99"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="68"/>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
@@ -22212,7 +22215,7 @@
       <c r="O41" s="48"/>
     </row>
     <row r="42" spans="2:15" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="99"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="68"/>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
@@ -22228,7 +22231,7 @@
       <c r="O42" s="48"/>
     </row>
     <row r="43" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="100"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="70"/>
       <c r="D43" s="70"/>
       <c r="E43" s="70"/>
@@ -22238,7 +22241,7 @@
       <c r="I43" s="70"/>
       <c r="J43" s="70"/>
       <c r="K43" s="71"/>
-      <c r="L43" s="55" t="s">
+      <c r="L43" s="149" t="s">
         <v>117</v>
       </c>
       <c r="M43" s="50"/>
@@ -22279,67 +22282,67 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="98"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67"/>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="98"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="67"/>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="129">
+      <c r="M2" s="130"/>
+      <c r="N2" s="135">
         <v>43836</v>
       </c>
-      <c r="O2" s="130"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="99"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="69"/>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="146"/>
+      <c r="M3" s="132"/>
       <c r="N3" s="117"/>
-      <c r="O3" s="131"/>
+      <c r="O3" s="137"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="100"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="70"/>
       <c r="D4" s="71"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="100"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="99"/>
       <c r="K4" s="71"/>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="148"/>
-      <c r="N4" s="132" t="s">
+      <c r="M4" s="134"/>
+      <c r="N4" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="133"/>
+      <c r="O4" s="139"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -22355,7 +22358,7 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -22366,14 +22369,14 @@
       <c r="J6" s="68"/>
       <c r="K6" s="69"/>
       <c r="L6" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -22389,7 +22392,7 @@
       <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -22405,7 +22408,7 @@
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -22421,7 +22424,7 @@
       <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -22432,14 +22435,14 @@
       <c r="J10" s="68"/>
       <c r="K10" s="69"/>
       <c r="L10" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -22455,7 +22458,7 @@
       <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -22471,7 +22474,7 @@
       <c r="O12" s="48"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -22487,7 +22490,7 @@
       <c r="O13" s="48"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -22503,7 +22506,7 @@
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -22514,14 +22517,14 @@
       <c r="J15" s="68"/>
       <c r="K15" s="69"/>
       <c r="L15" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -22537,7 +22540,7 @@
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -22553,7 +22556,7 @@
       <c r="O17" s="48"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -22569,7 +22572,7 @@
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -22585,7 +22588,7 @@
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -22601,7 +22604,7 @@
       <c r="O20" s="48"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -22617,7 +22620,7 @@
       <c r="O21" s="48"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -22633,7 +22636,7 @@
       <c r="O22" s="48"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -22644,14 +22647,14 @@
       <c r="J23" s="68"/>
       <c r="K23" s="69"/>
       <c r="L23" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
       <c r="O23" s="48"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -22667,7 +22670,7 @@
       <c r="O24" s="48"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -22678,14 +22681,14 @@
       <c r="J25" s="68"/>
       <c r="K25" s="69"/>
       <c r="L25" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M25" s="47"/>
       <c r="N25" s="47"/>
       <c r="O25" s="48"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -22701,7 +22704,7 @@
       <c r="O26" s="48"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -22717,7 +22720,7 @@
       <c r="O27" s="48"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -22733,7 +22736,7 @@
       <c r="O28" s="48"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -22749,7 +22752,7 @@
       <c r="O29" s="48"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -22765,7 +22768,7 @@
       <c r="O30" s="48"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -22781,7 +22784,7 @@
       <c r="O31" s="48"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -22797,7 +22800,7 @@
       <c r="O32" s="48"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -22813,7 +22816,7 @@
       <c r="O33" s="48"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -22829,7 +22832,7 @@
       <c r="O34" s="48"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -22840,14 +22843,14 @@
       <c r="J35" s="68"/>
       <c r="K35" s="69"/>
       <c r="L35" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
       <c r="O35" s="48"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -22858,14 +22861,14 @@
       <c r="J36" s="68"/>
       <c r="K36" s="69"/>
       <c r="L36" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M36" s="47"/>
       <c r="N36" s="47"/>
       <c r="O36" s="48"/>
     </row>
     <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="100"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -22882,16 +22885,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:K37"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:I4"/>
     <mergeCell ref="J2:K4"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22903,8 +22906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22919,7 +22922,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="98"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
@@ -22942,7 +22945,7 @@
       <c r="P2" s="106"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="69"/>
@@ -22961,7 +22964,7 @@
       <c r="P3" s="108"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="100"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
@@ -22982,7 +22985,7 @@
       <c r="P4" s="110"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
@@ -22999,7 +23002,7 @@
       <c r="P5" s="48"/>
     </row>
     <row r="6" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -23011,14 +23014,14 @@
       <c r="K6" s="68"/>
       <c r="L6" s="69"/>
       <c r="M6" s="111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N6" s="112"/>
       <c r="O6" s="112"/>
       <c r="P6" s="113"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -23030,11 +23033,11 @@
       <c r="K7" s="68"/>
       <c r="L7" s="69"/>
       <c r="M7" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -23046,14 +23049,14 @@
       <c r="K8" s="68"/>
       <c r="L8" s="69"/>
       <c r="M8" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
       <c r="P8" s="74"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
@@ -23072,7 +23075,7 @@
       <c r="P9" s="74"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
@@ -23083,13 +23086,13 @@
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="77"/>
+      <c r="M10" s="93"/>
       <c r="N10" s="75"/>
       <c r="O10" s="75"/>
       <c r="P10" s="76"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -23101,14 +23104,14 @@
       <c r="K11" s="68"/>
       <c r="L11" s="69"/>
       <c r="M11" s="72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="75"/>
       <c r="O11" s="75"/>
       <c r="P11" s="76"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
@@ -23125,7 +23128,7 @@
       <c r="P12" s="76"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -23144,7 +23147,7 @@
       <c r="P13" s="76"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -23156,14 +23159,14 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N14" s="75"/>
       <c r="O14" s="75"/>
       <c r="P14" s="76"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -23174,13 +23177,13 @@
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
-      <c r="M15" s="77"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="75"/>
       <c r="O15" s="75"/>
       <c r="P15" s="76"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -23191,13 +23194,13 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
-      <c r="M16" s="77"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="75"/>
       <c r="O16" s="75"/>
       <c r="P16" s="76"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
@@ -23208,13 +23211,13 @@
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
-      <c r="M17" s="77"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="75"/>
       <c r="O17" s="75"/>
       <c r="P17" s="76"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -23226,14 +23229,14 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N18" s="75"/>
       <c r="O18" s="75"/>
       <c r="P18" s="76"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -23245,14 +23248,14 @@
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
       <c r="M19" s="72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N19" s="75"/>
       <c r="O19" s="75"/>
       <c r="P19" s="76"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23264,14 +23267,14 @@
       <c r="K20" s="68"/>
       <c r="L20" s="69"/>
       <c r="M20" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N20" s="75"/>
       <c r="O20" s="75"/>
       <c r="P20" s="76"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23288,7 +23291,7 @@
       <c r="P21" s="76"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
@@ -23299,13 +23302,13 @@
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
       <c r="L22" s="69"/>
-      <c r="M22" s="77"/>
+      <c r="M22" s="93"/>
       <c r="N22" s="75"/>
       <c r="O22" s="75"/>
       <c r="P22" s="76"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -23316,13 +23319,13 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
       <c r="L23" s="69"/>
-      <c r="M23" s="77"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="75"/>
       <c r="O23" s="75"/>
       <c r="P23" s="76"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -23333,13 +23336,13 @@
       <c r="J24" s="68"/>
       <c r="K24" s="68"/>
       <c r="L24" s="69"/>
-      <c r="M24" s="77"/>
+      <c r="M24" s="93"/>
       <c r="N24" s="75"/>
       <c r="O24" s="75"/>
       <c r="P24" s="76"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -23350,13 +23353,13 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
       <c r="L25" s="69"/>
-      <c r="M25" s="77"/>
+      <c r="M25" s="93"/>
       <c r="N25" s="75"/>
       <c r="O25" s="75"/>
       <c r="P25" s="76"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="99"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
@@ -23373,7 +23376,7 @@
       <c r="P26" s="76"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="99"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -23390,7 +23393,7 @@
       <c r="P27" s="76"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="99"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -23407,7 +23410,7 @@
       <c r="P28" s="76"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="99"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -23424,7 +23427,7 @@
       <c r="P29" s="76"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
@@ -23435,13 +23438,13 @@
       <c r="J30" s="68"/>
       <c r="K30" s="68"/>
       <c r="L30" s="69"/>
-      <c r="M30" s="77"/>
+      <c r="M30" s="93"/>
       <c r="N30" s="75"/>
       <c r="O30" s="75"/>
       <c r="P30" s="76"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="99"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -23452,13 +23455,13 @@
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
       <c r="L31" s="69"/>
-      <c r="M31" s="77"/>
+      <c r="M31" s="93"/>
       <c r="N31" s="75"/>
       <c r="O31" s="75"/>
       <c r="P31" s="76"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="99"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -23469,13 +23472,13 @@
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
       <c r="L32" s="69"/>
-      <c r="M32" s="99"/>
+      <c r="M32" s="98"/>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
       <c r="P32" s="69"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="99"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -23486,13 +23489,13 @@
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
       <c r="L33" s="69"/>
-      <c r="M33" s="99"/>
+      <c r="M33" s="98"/>
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
       <c r="P33" s="69"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="99"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -23503,13 +23506,13 @@
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
       <c r="L34" s="69"/>
-      <c r="M34" s="99"/>
+      <c r="M34" s="98"/>
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
       <c r="P34" s="69"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -23520,13 +23523,13 @@
       <c r="J35" s="68"/>
       <c r="K35" s="68"/>
       <c r="L35" s="69"/>
-      <c r="M35" s="99"/>
+      <c r="M35" s="98"/>
       <c r="N35" s="68"/>
       <c r="O35" s="68"/>
       <c r="P35" s="69"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="99"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
@@ -23537,13 +23540,13 @@
       <c r="J36" s="68"/>
       <c r="K36" s="68"/>
       <c r="L36" s="69"/>
-      <c r="M36" s="99"/>
+      <c r="M36" s="98"/>
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
       <c r="P36" s="69"/>
     </row>
     <row r="37" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="100"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -23561,6 +23564,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="F2:L4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="M36:P36"/>
     <mergeCell ref="B5:L37"/>
@@ -23577,29 +23603,6 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="F2:L4"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
